--- a/all_annotated/KLAC_Q4_2014_1.xlsx
+++ b/all_annotated/KLAC_Q4_2014_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubjECTive-QA\Abhishek-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D7ADC5-2120-4945-9F2A-131EC65D4C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C68FCE-B7E4-6B4A-9D9A-C46418860A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
   <si>
     <t>Asker</t>
   </si>
@@ -269,12 +269,6 @@
   </si>
   <si>
     <t>Patrick J. Ho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rick, maybe first, a big kind of picture question on the reticle inspection business as a whole. We've seen a pickup in orders in recent quarters. But do you see any big structural changes in that business itself given that you are at much higher run rates coming out of the market correction in 2010 and '11 but we've kind of seen it really muted for the last, I would say, 3 years. Are there big changes coming around? Or do you see maybe a more sustained pickup as we enter 2015?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patrick, great question. I would say the following</t>
   </si>
   <si>
     <t xml:space="preserve"> Great. And my follow-up question on the wafer inspection business. You've seen a pickup, and you talked about the record orders this year. You've also mentioned that DRAM spending was up. I think in the past, you've noted that you expect the process control intensity for DRAM to be kind of split between metrology and inspection. I guess, after the last few quarters with DRAM spending has been up, are you seeing more of a bias towards inspection given that metrology is trying to hold steady? Or is that something where metrology will catch up down the line with, I guess, the capacity build on the DRAM side?</t>
@@ -314,6 +308,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -351,12 +346,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,15 +653,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -712,26 +706,26 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -744,26 +738,26 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -776,26 +770,26 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -808,26 +802,26 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -840,26 +834,26 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -872,26 +866,26 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -904,26 +898,26 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -936,26 +930,26 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -968,26 +962,26 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1000,26 +994,26 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1032,26 +1026,26 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1064,26 +1058,26 @@
       <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1096,26 +1090,26 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1128,26 +1122,26 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1160,26 +1154,26 @@
       <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1192,26 +1186,26 @@
       <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1224,26 +1218,26 @@
       <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1256,26 +1250,26 @@
       <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1288,26 +1282,26 @@
       <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1320,26 +1314,26 @@
       <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1352,26 +1346,26 @@
       <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1384,26 +1378,26 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1416,26 +1410,26 @@
       <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1448,26 +1442,26 @@
       <c r="D25" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1480,26 +1474,26 @@
       <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1512,26 +1506,26 @@
       <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>2</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1544,26 +1538,26 @@
       <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -1576,26 +1570,26 @@
       <c r="D29" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1608,26 +1602,26 @@
       <c r="D30" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1635,216 +1629,155 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>2</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>2</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
-      <c r="J37" s="2">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>1</v>
       </c>
     </row>
